--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/10bet2winDataBrokenIMGList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/10bet2winDataBrokenIMGList.xlsx
@@ -12,12 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>161  Game Provider Name = PlaynGo   Game Name =  Coils of Cash  src = https://agstatic.com/games/playngo/coils_of_cash.jpg</t>
+  </si>
   <si>
     <t>162  Game Provider Name = QuickSpin   Game Name =  Colossus  cod = 404   src = https://resources.bet2win.vip/products/quickspin/web/qso_colossus.jpg</t>
   </si>
   <si>
+    <t>169  Game Provider Name = Platipus   Game Name =  Crocoman  src = https://agstatic.com/games/platipus/crocoman.jpg</t>
+  </si>
+  <si>
     <t>196  Game Provider Name = QuickSpin   Game Name =  Divine Dreams  cod = 404   src = https://resources.bet2win.vip/products/quickspin/web/DivineDreams.png</t>
+  </si>
+  <si>
+    <t>201  Game Provider Name = PlaynGo   Game Name =  Dr. Toonz  src = https://agstatic.com/games/playngo/dr_toonz.jpg</t>
+  </si>
+  <si>
+    <t>218  Game Provider Name = QuickSpin   Game Name =  Dwarfs Gone Wild  src = https://static.egamings.com/games/quickspin/dwarfs_gone_wild.jpg</t>
+  </si>
+  <si>
+    <t>230  Game Provider Name = PariPlay   Game Name =  European Roulette High Stakes  src = https://agstatic.com/games/pariplay/european_roulette_high_stakes.jpg</t>
+  </si>
+  <si>
+    <t>238  Game Provider Name = Platipus   Game Name =  FairyForest  src = https://agstatic.com/games/platipus/fairyforest.jpg</t>
   </si>
   <si>
     <t>329  Game Provider Name = QuickSpin   Game Name =  Goldilocks &amp; Wild Bears  cod = 404   src = https://resources.bet2win.vip/products/quickspin/web/qso_goldilocks2.jpg</t>
@@ -95,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -169,6 +187,36 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
